--- a/biology/Zoologie/Camponotus_ligniperdus/Camponotus_ligniperdus.xlsx
+++ b/biology/Zoologie/Camponotus_ligniperdus/Camponotus_ligniperdus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fourmi Camponotus ligniperdus (synonyme  Camponotus ligniperda) est une des très nombreuses espèces du genre Camponotus.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fourmis de grande taille, la reine atteint environ 19 mm et les ouvrières entre 7 et 15 mm[1] ; elles sont bicolores. Cette espèce possède un polymorphisme important avec des sous-castes chez les ouvrières dites minor, media et major.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fourmis de grande taille, la reine atteint environ 19 mm et les ouvrières entre 7 et 15 mm ; elles sont bicolores. Cette espèce possède un polymorphisme important avec des sous-castes chez les ouvrières dites minor, media et major.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat et aire de répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles nichent dans le bois mort ou parfois sous les pierres. Le taux d'humidité du nid est de 15 % et la température ne dépasse que rarement 25 °C.
-Elles sont présentes dans les zones tempérées de l'Europe de l'Ouest et dans la plupart des régions françaises[2]. En Belgique, dans le sud-est du pays uniquement[3].
+Elles sont présentes dans les zones tempérées de l'Europe de l'Ouest et dans la plupart des régions françaises. En Belgique, dans le sud-est du pays uniquement.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce qui fonde des colonies indépendantes (sans bouturage) et monogynes (une seule reine par colonie) dont l'essaimage a lieu entre mai et juin.
 La reine a une espérance de vie qui dépasse la décennie. 
